--- a/Batch/APP_NAME - CAST - CI Review - DATE.xlsx
+++ b/Batch/APP_NAME - CAST - CI Review - DATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eca\Desktop\Support\Education\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460515D6-9452-42BE-AE93-C3CF7E0692F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BEE0FF-7B24-489A-B5FC-C18237129B7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="507" xr2:uid="{BFE67104-DF7B-43AE-AC31-98C921C5957E}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" tabRatio="507" activeTab="1" xr2:uid="{BFE67104-DF7B-43AE-AC31-98C921C5957E}"/>
   </bookViews>
   <sheets>
     <sheet name="CI REVIEW YYYYMMDD" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Criticality</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t># Fixed Violations</t>
-  </si>
-  <si>
-    <t>Avoid Form Field without Validator</t>
   </si>
   <si>
     <t>Violation Status</t>
@@ -138,18 +135,6 @@
     <t>Module Name</t>
   </si>
   <si>
-    <t>New Violation</t>
-  </si>
-  <si>
-    <t>[mcx_10906fdf].requestScope.ManagedDocumentForm</t>
-  </si>
-  <si>
-    <t>Struts Form Bean</t>
-  </si>
-  <si>
-    <t>Added</t>
-  </si>
-  <si>
     <t>Application Name</t>
   </si>
   <si>
@@ -165,13 +150,7 @@
     <t>Date_When_Report_Is_Generated</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Rule ID</t>
-  </si>
-  <si>
-    <t>URL</t>
   </si>
   <si>
     <t>Version N / Analysis Date</t>
@@ -180,40 +159,10 @@
     <t>Version N-1 / Analysis Date</t>
   </si>
   <si>
-    <t>Sample Quality Rule Name N°1</t>
-  </si>
-  <si>
-    <t>Sample Quality Rule Name N°2</t>
-  </si>
-  <si>
-    <t>Avoid action mappings validator turned off</t>
-  </si>
-  <si>
-    <t>[D:\CAST\CASTMS836\Deploy\Express\Source Package\WEB-INF\config\struts-config.xml]./ViewMCA</t>
-  </si>
-  <si>
-    <t>Struts Action Mapping</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>[mcx_10906fdf].requestScope.TemplateForm</t>
-  </si>
-  <si>
-    <t>Avoid cyclical calls and inheritances between packages</t>
-  </si>
-  <si>
     <t>Critical</t>
   </si>
   <si>
     <t>PRI</t>
-  </si>
-  <si>
-    <t>Module 1</t>
-  </si>
-  <si>
-    <t>Module 2</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -300,7 +249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,6 +463,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF9BAE04"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1350,6 +1305,24 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="35" borderId="25" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1373,24 +1346,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2087,8 +2042,8 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2106,85 +2061,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="65"/>
+      <c r="A1" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
+      <c r="A2" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="20"/>
       <c r="E2" s="21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
+      <c r="A3" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="20"/>
       <c r="E3" s="22" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
+      <c r="A4" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="20"/>
       <c r="E4" s="23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="47"/>
       <c r="E5" s="17"/>
       <c r="F5" s="15"/>
       <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="A6" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="51"/>
       <c r="I7" s="51"/>
       <c r="J7" s="51"/>
@@ -2202,7 +2157,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>0</v>
@@ -2214,7 +2169,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>3</v>
@@ -2224,71 +2179,39 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
-        <v>9999</v>
-      </c>
+      <c r="A10" s="14"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="12">
-        <v>9</v>
-      </c>
+      <c r="C10" s="12"/>
       <c r="D10" s="24">
         <f>IF($F10&gt;0,IF($F10&lt;$G10,2,3),IF($G10=0,1,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="14">
-        <v>4</v>
-      </c>
-      <c r="G10" s="14">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="26">
-        <v>7292</v>
-      </c>
+      <c r="A11" s="26"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="31">
-        <v>7</v>
-      </c>
+      <c r="C11" s="31"/>
       <c r="D11" s="32">
         <f t="shared" ref="D11" si="0">IF($F11&gt;0,IF($F11&lt;$G11,2,3),IF($G11=0,1,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="26">
-        <v>5</v>
-      </c>
-      <c r="G11" s="26">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="41">
-        <v>9999</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="39">
-        <v>7</v>
-      </c>
+      <c r="A12" s="41"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="38">
         <v>0</v>
       </c>
-      <c r="E12" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="41">
-        <v>0</v>
-      </c>
-      <c r="G12" s="41">
-        <v>3</v>
-      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:10" s="36" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="42"/>
@@ -2296,28 +2219,26 @@
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
       <c r="E13" s="44" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A6:G7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:G7"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F11" location="'CI RAW DATA 20181025'!$B$16" display="'CI RAW DATA 20181025'!$B$16" xr:uid="{7C94BF48-71E0-403E-B572-A047315E0A96}"/>
-  </hyperlinks>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2425,10 +2346,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C389303A-CF34-4368-8D58-B84A657873AB}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2447,156 +2368,82 @@
     <col min="12" max="16384" width="8.81640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="34" t="s">
+      <c r="H1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="I1" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="34" t="s">
+      <c r="K1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="14">
-        <v>7362</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="14">
-        <v>9</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="14">
-        <v>760</v>
-      </c>
-      <c r="J2" s="14">
-        <v>50</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>37</v>
-      </c>
+    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="26">
-        <v>7416</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="26">
-        <v>9</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="26">
-        <v>760</v>
-      </c>
-      <c r="J3" s="26">
-        <v>52</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>38</v>
-      </c>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="28">
-        <v>7416</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="28">
-        <v>9</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="28">
-        <v>580</v>
-      </c>
-      <c r="J4" s="28">
-        <v>39</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>37</v>
-      </c>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" location="AED0/applications/3/snapshots/2/business/60017/qualityInvestigation/0/60017/66068/7210/35493?_p=eyJxaV92aW9sYXRpb25zIjoxLCJxaV9zY3JvbGwiOjUzfQ==" xr:uid="{1569EB74-41D5-4753-86E9-8A9C032DB072}"/>
-    <hyperlink ref="F3" r:id="rId2" location="AED0/applications/3/snapshots/2/business/60017/qualityInvestigation/0/60017/66068/7210/35493?_p=eyJxaV92aW9sYXRpb25zIjoxLCJxaV9zY3JvbGwiOjUzfQ==" xr:uid="{C97E829C-E574-430D-A1D5-618D3AB5576F}"/>
-    <hyperlink ref="F4" r:id="rId3" location="AED0/applications/3/snapshots/2/business/60017/qualityInvestigation/0/60017/66068/7210/35493?_p=eyJxaV92aW9sYXRpb25zIjoxLCJxaV9zY3JvbGwiOjUzfQ==" xr:uid="{175FFBB5-443A-496E-B307-836BE1D8EC58}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>